--- a/Task List.xlsx
+++ b/Task List.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taikwando/Documents/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taikwando/loris-hands-service/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -27,7 +27,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="28">
   <si>
     <t>Task</t>
   </si>
@@ -113,7 +113,10 @@
     <t>Implement Back End if Time</t>
   </si>
   <si>
-    <t>Owner</t>
+    <t>Mock Ups</t>
+  </si>
+  <si>
+    <t>Design Mock ups each page</t>
   </si>
 </sst>
 </file>
@@ -134,7 +137,7 @@
       <name val="Abadi MT Condensed Extra Bold"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -144,6 +147,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFC00000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -160,13 +169,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -444,10 +454,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D17"/>
+  <dimension ref="A1:D18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -466,9 +476,7 @@
       <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="D1" s="3"/>
     </row>
     <row r="2" spans="1:4" ht="32" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
@@ -477,7 +485,7 @@
       <c r="B2" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="2"/>
+      <c r="C2" s="4"/>
     </row>
     <row r="3" spans="1:4" ht="48" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
@@ -586,6 +594,15 @@
         <v>25</v>
       </c>
       <c r="C17" s="2"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="A18" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" t="s">
+        <v>27</v>
+      </c>
+      <c r="C18" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
